--- a/BalanceSheet/ROP_bal.xlsx
+++ b/BalanceSheet/ROP_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-8200000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>19800000.0</v>
+        <v>198000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3900000.0</v>
+        <v>215000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-8800000.0</v>
+        <v>217000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-10300000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>198600000.0</v>
@@ -1647,19 +1647,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-46400000.0</v>
+        <v>191000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>68300000.0</v>
+        <v>178000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>34500000.0</v>
+        <v>173000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>89000000.0</v>
+        <v>185000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-70200000.0</v>
+        <v>181000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>162000000.0</v>
@@ -4783,7 +4783,7 @@
         <v>4276000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4842000000.0</v>
+        <v>4565600000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>5875000000.0</v>
@@ -4910,7 +4910,7 @@
         <v>5276000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5552000000.0</v>
+        <v>5275300000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>6198000000.0</v>
